--- a/output.xlsx
+++ b/output.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C115" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C113" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C111" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C112" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C114" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C113" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C114" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C112" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C115" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,59 +465,71 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:DanielL
+Asignatura:LogicaCp
+Aula:4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programacion
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Profesor:CayetanaAL
 Asignatura:AlgebraCP
-Aula:5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:3</t>
-        </is>
-      </c>
+Aula:3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Profesor:CristinaA
+Asignatura:AnalisisCp
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
+Aula:4</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Profesor:ErnestoA
-Asignatura:AnalisisCp
-Aula:3</t>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:4</t>
+          <t>Profesor:HectorP
+Asignatura:ProgramacionCp
+Aula:5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:1</t>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:3</t>
         </is>
       </c>
     </row>
@@ -527,33 +539,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:OmarL
-Asignatura:LogicaCp
+          <t>Profesor:ErnestoA
+Asignatura:AnalisisCp
 Aula:4</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -602,33 +602,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Profesor:DanielL
+Asignatura:LogicaCp
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:3</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:2</t>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
 Aula:5</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -636,33 +636,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
+          <t>Profesor:DalianisAL
+Asignatura:AlgebraCP
+Aula:3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramacionCp
+          <t>Profesor:CristinaA
+Asignatura:AnalisisCp
+Aula:3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:PepeAl
+Asignatura:AlgebraCP
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
 Aula:2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programacion
 Aula:4</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -671,26 +677,20 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramacionCp
-Aula:1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
+          <t>Profesor:ErnestoA
 Asignatura:AnalisisCp
-Aula:1</t>
-        </is>
-      </c>
+Aula:3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -737,60 +737,72 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programacion
+Aula:4</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Profesor:PepeAl
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:DanielL
+Asignatura:LogicaCp
+Aula:3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:CayetanaAL
 Asignatura:AlgebraCP
-Aula:4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:2</t>
-        </is>
-      </c>
+Aula:3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Profesor:Yudivian
 Asignatura:Logica
+Aula:2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
 Aula:5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:2</t>
+          <t>Profesor:DalianisAL
+Asignatura:AlgebraCP
+Aula:4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Profesor:Celia
 Asignatura:Algebra
+Aula:4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
 Aula:3</t>
         </is>
       </c>
@@ -799,35 +811,23 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:PacoP
 Asignatura:ProgramacionCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:3</t>
-        </is>
-      </c>
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -876,33 +876,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:OmarL
+Asignatura:LogicaCp
+Aula:2</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Profesor:ErnestoA
 Asignatura:AnalisisCp
 Aula:1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:1</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -910,59 +910,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
+Aula:3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAL
+Asignatura:AlgebraCP
 Aula:1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Profesor:HectorP
 Asignatura:ProgramacionCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+Aula:3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Profesor:MercedesA
 Asignatura:AnalisisCp
 Aula:1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:4</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
-Aula:1</t>
+          <t>Profesor:Piad
+Asignatura:Programacion
+Aula:5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:2</t>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:5</t>
         </is>
       </c>
     </row>
@@ -1015,31 +1015,31 @@
         <is>
           <t>Profesor:Yudivian
 Asignatura:Logica
+Aula:3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:CarmenL
+Asignatura:LogicaCp
 Aula:4</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:PepeAl
 Asignatura:AlgebraCP
-Aula:2</t>
-        </is>
-      </c>
+Aula:3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1047,25 +1047,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
+          <t>Profesor:CristinaA
 Asignatura:AnalisisCp
 Aula:5</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:PacoP
+Asignatura:ProgramacionCp
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:PepeAl
+Asignatura:AlgebraCP
+Aula:3</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:4</t>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:3</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1087,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
+          <t>Profesor:Piad
+Asignatura:Programacion
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
 Aula:4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C113" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C111" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C114" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C112" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C115" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="C115" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="C112" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="C114" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="C111" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="C113" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,22 +465,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Profesor:DanielL
 Asignatura:LogicaCp
 Aula:4</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAL
+Asignatura:AlgebraCP
+Aula:3</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
+          <t>Profesor:PacoP
+Asignatura:ProgramacionCp
 Aula:2</t>
         </is>
       </c>
@@ -499,60 +499,60 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Profesor:CarlaP
 Asignatura:ProgramacionCp
-Aula:2</t>
+Aula:1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programacion
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:ErnestoA
+Asignatura:AnalisisCp
+Aula:4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Profesor:Idania
 Asignatura:Analisis
 Aula:3</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Profesor:ErnestoA
-Asignatura:AnalisisCp
-Aula:4</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:CristinaA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
@@ -602,71 +602,71 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
+Aula:5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programacion
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:CristinaA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Profesor:HectorP
+Asignatura:ProgramacionCp
+Aula:3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Profesor:DanielL
 Asignatura:LogicaCp
 Aula:5</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Profesor:Celia
 Asignatura:Algebra
-Aula:3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
 Aula:5</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:MercedesA
 Asignatura:AnalisisCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:4</t>
+Aula:2</t>
         </is>
       </c>
     </row>
@@ -677,20 +677,20 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Profesor:ErnestoA
-Asignatura:AnalisisCp
-Aula:3</t>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:PepeAl
+Asignatura:AlgebraCP
+Aula:1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -739,30 +739,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Profesor:Piad
 Asignatura:Programacion
 Aula:4</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:1</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:3</t>
+          <t>Profesor:PepeAl
+Asignatura:AlgebraCP
+Aula:1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:3</t>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -773,37 +773,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
 Aula:2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:PacoP
 Asignatura:ProgramacionCp
 Aula:5</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:OmarL
+Asignatura:LogicaCp
 Aula:4</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:4</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:3</t>
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:2</t>
         </is>
       </c>
     </row>
@@ -811,20 +811,20 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:CristinaA
 Asignatura:AnalisisCp
 Aula:4</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Profesor:PacoP
+          <t>Profesor:HectorP
 Asignatura:ProgramacionCp
-Aula:1</t>
+Aula:4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -876,30 +876,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Profesor:OmarL
+          <t>Profesor:DanielL
 Asignatura:LogicaCp
-Aula:2</t>
+Aula:1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>Profesor:ErnestoA
 Asignatura:AnalisisCp
-Aula:1</t>
+Aula:5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
+Aula:3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -910,36 +910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
 Aula:3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
-Aula:1</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Profesor:HectorP
 Asignatura:ProgramacionCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:4</t>
+Aula:1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
+          <t>Profesor:PepeAl
+Asignatura:AlgebraCP
 Aula:1</t>
         </is>
       </c>
@@ -949,22 +949,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Profesor:Piad
 Asignatura:Programacion
 Aula:5</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
 Aula:5</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1013,32 +1013,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Profesor:CarmenL
 Asignatura:LogicaCp
 Aula:4</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Profesor:PepeAl
 Asignatura:AlgebraCP
 Aula:3</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:ErnestoA
+Asignatura:AnalisisCp
+Aula:5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:2</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1047,36 +1047,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:CristinaA
+          <t>Profesor:MercedesA
 Asignatura:AnalisisCp
 Aula:5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
+Aula:4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:CarlaP
+Asignatura:ProgramacionCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Profesor:Celia
 Asignatura:Algebra
-Aula:2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramacionCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
 Aula:3</t>
         </is>
       </c>
@@ -1087,19 +1087,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Profesor:Piad
 Asignatura:Programacion
 Aula:5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:4</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,11 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C113" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C111" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C114" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="D111" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C312" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C311" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C112" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C115" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C111" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C121" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M311" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M111" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,71 +468,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
+          <t>Profesor:Ernesto Alejandro López
+Asignatura:Análisis Matemático II (D) CP
+Aula:2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:Lisandra
+Asignatura:Comunicación en Ciencia de Datos CP
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivián
+Asignatura:Comunicación en Ciencia de Datos
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:Ángela León
+Asignatura:Matemática Numérica (D)
 Aula:3</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:Carlos David
+Asignatura:Programación (D) CP
+Aula:8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Ernesto Alejandro López
+Asignatura:Análisis Matemático II (D)
+Aula:6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de EF 1
+Asignatura:Eduacación Física II (D)
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Lázaro D. Glez
+Asignatura:Matemática Numérica (D) CP
 Aula:5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:3</t>
         </is>
       </c>
     </row>
@@ -539,21 +536,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor:ErnestoA
-Asignatura:AnalisisCp
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (D)
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Profesor:Carlos David
+Asignatura:Programación (D)
 Aula:4</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
+          <t>Profesor:Vivian Sistachs
+Asignatura:Análisis Exploratorio de Datos
 Aula:2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Marcos Torres
+Asignatura:Análisis Exploratorio de Datos CP
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (D)
+Aula:5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -602,33 +617,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
+          <t>Profesor:Gemayzel Bouza
+Asignatura:Modelos de Optimización (C)
 Aula:3</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Profesor:Carlos León
+Asignatura:Sistema de Recuperación de Información
+Aula:6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:Gabriel
+Asignatura:Compilación CP
+Aula:4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -636,37 +645,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
-Aula:3</t>
-        </is>
-      </c>
+          <t>Profesor:Juan Pablo
+Asignatura:Compilación
+Aula:4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:4</t>
+          <t>Profesor:Elena
+Asignatura:Simulación CP
+Aula:8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
+          <t>Profesor:Piad
+Asignatura:Inteligencia Artificial
+Aula:8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:4</t>
+          <t>Profesor:Alejandra Monzon
+Asignatura:Modelos Matemáticos Aplicados
+Aula:7</t>
         </is>
       </c>
     </row>
@@ -674,23 +677,35 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:Merling Sabater
+Asignatura:Modelos de Optimización (C) CP
+Aula:8</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Profesor:ErnestoA
-Asignatura:AnalisisCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Profesor:Deborah
+Asignatura:Inteligencia Artificial CP
+Aula:5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Laura Riera
+Asignatura:Sistema de Recuperación de Información CP
+Aula:6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Daniel
+Asignatura:Simulación
+Aula:7</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -739,33 +754,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
+          <t>Profesor:Daniela
+Asignatura:Modelos de Optimización (C) CP
 Aula:4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:1</t>
+          <t>Profesor:Deborah
+Asignatura:Simulación CP
+Aula:8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:3</t>
+          <t>Profesor:Laura Riera
+Asignatura:Sistema de Recuperación de Información CP
+Aula:5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Profesor:Daniel
+Asignatura:Simulación
+Aula:7</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:Gabriel
+Asignatura:Compilación CP
+Aula:4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -773,61 +794,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
+          <t>Profesor:Juan Pablo
+Asignatura:Compilación
+Aula:4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
+          <t>Profesor:Deborah
+Asignatura:Inteligencia Artificial CP
+Aula:9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Gemayzel Bouza
+Asignatura:Modelos de Optimización (C)
 Aula:4</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:3</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Profesor:Aymee Marrero
+Asignatura:Modelos Matemáticos Aplicados
+Aula:2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Carlos León
+Asignatura:Sistema de Recuperación de Información
 Aula:4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramacionCp
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Inteligencia Artificial
 Aula:1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -874,32 +889,26 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:Celia Tamara
+Asignatura:Álgebra II
 Aula:2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Profesor:OmarL
-Asignatura:LogicaCp
-Aula:2</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:1</t>
+          <t>Profesor:Ania Mesa
+Asignatura:Análisis Matemático II (C) CP
+Aula:9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Profesor:ErnestoA
-Asignatura:AnalisisCp
-Aula:1</t>
+          <t>Profesor:Idania Urrutia
+Asignatura:Análisis Matemático II (C)
+Aula:9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -908,38 +917,32 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de Economía Política
+Asignatura:Economía Política
+Aula:7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:Dalianys Pérez
+Asignatura:Álgebra II CP
+Aula:9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de EF 2
+Asignatura:Educación Física II (C)
 Aula:3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAL
-Asignatura:AlgebraCP
-Aula:1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramacionCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:4</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
+          <t>Profesor:Profe de Economía Política
+Asignatura:Economía Política
 Aula:1</t>
         </is>
       </c>
@@ -948,23 +951,35 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:Guaty
+Asignatura:Programación (C) CP
+Aula:7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (C)
+Aula:7</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
-Aula:5</t>
-        </is>
-      </c>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (C)
+Aula:9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Juan Pablo
+Asignatura:Programación (C)
+Aula:7</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1013,33 +1028,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:3</t>
+          <t>Profesor:Ania Mesa
+Asignatura:Análisis Matemático II (C) CP
+Aula:9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Profesor:CarmenL
-Asignatura:LogicaCp
-Aula:4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramacionCp
+          <t>Profesor:Profe de EF 2
+Asignatura:Educación Física II (C)
 Aula:5</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Profesor:Miguel Antonio Glez
+Asignatura:Álgebra II CP
+Aula:8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de Economía Política
+Asignatura:Economía Política
+Aula:7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1047,39 +1062,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
-Aula:5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
+          <t>Profesor:Idania Urrutia
+Asignatura:Análisis Matemático II (C)
+Aula:7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:Juan Pablo
+Asignatura:Programación (C)
+Aula:1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (C)
 Aula:2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramacionCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAl
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:3</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1087,21 +1090,444 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programacion
+          <t>Profesor:Guaty
+Asignatura:Programación (C) CP
+Aula:7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (C)
+Aula:7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de Economía Política
+Asignatura:Economía Política
 Aula:5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Celia Tamara
+Asignatura:Álgebra II
+Aula:6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Turno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:Joana
+Asignatura:Programación (C) CP
+Aula:4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:Ania Mesa
+Asignatura:Análisis Matemático II (C) CP
+Aula:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (C)
+Aula:3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de EF 2
+Asignatura:Educación Física II (C)
+Aula:3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de Economía Política
+Asignatura:Economía Política
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Idania Urrutia
+Asignatura:Análisis Matemático II (C)
+Aula:7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Celia Tamara
+Asignatura:Álgebra II
+Aula:8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:Juan Pablo
+Asignatura:Programación (C)
+Aula:3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Profesor:Miguel Antonio Glez
+Asignatura:Álgebra II CP
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (C)
+Aula:5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de Economía Política
+Asignatura:Economía Política
+Aula:2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Turno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Profesor:Odette Pantoja
+Asignatura:Matemática Numérica (M) CP
+Aula:6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:Mauricio
+Asignatura:Optimización Matemática II CP
+Aula:9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:Reinaldo Rodríguez
+Asignatura:Mecánica Clásica
+Aula:7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:Mariano Rguez
+Asignatura:Ecuaciones en Derivadas Parciales
+Aula:5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:Alicia Pérez
+Asignatura:Ecuaciones en Derivadas Parciales CP
+Aula:5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Profesor:Raúl Guinovart
+Asignatura:Topología
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe Optativo
+Asignatura:Asignatura Optativa I (M)
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de Practicas
+Asignatura:Seminario de Problemas III
+Aula:6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:Roberto Bernal
+Asignatura:Mecánica Clásica CP
+Aula:9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
+          <t>Profesor:Fernándo Rguez
+Asignatura:Matemática Numérica (M)
+Aula:7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Wilfredo Morales
+Asignatura:Topología CP
+Aula:6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Sira Allende
+Asignatura:Optimización Matemática II
+Aula:9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Turno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (M)
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:Carlos N. Bouza
+Asignatura:Seminario de Problemas I
+Aula:3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Profesor:David Balbuena
+Asignatura:Álgebra Lineal
+Aula:6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Profesor:Leyanis Falcón
+Asignatura:Álgebra Lineal CP
+Aula:8</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Valentina Badí
+Asignatura:Funciones de una Variable Real
 Aula:4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:Alejandro Mesejo
+Asignatura:Programación y Algoritmos
+Aula:6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:José Julián Díaz Pérez
+Asignatura:Funciones de una Variable Real CP
+Aula:9</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Un Profe de Historia
+Asignatura:Historia de Cuba (M)
+Aula:4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Manuel Valiente
+Asignatura:Programación y Algoritmos CP
+Aula:2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profesor:Profe de EF 1
+Asignatura:Educación Física II (M)
+Aula:4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
